--- a/ProjectPony/Results/Experience 4/Informe Previo.xlsx
+++ b/ProjectPony/Results/Experience 4/Informe Previo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/TFG_GITT_Joscanege/ProyectoPony/Resultados/Jesus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamac\Documents\GitHub\javmunca-GIE-AHP\ProjectPony\Results\Experience 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_75864554C66EF6DAAC85A82698116EFF56F0CE92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B3692B1-9130-4547-9560-61833583A209}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DC06E3-9074-4E54-B9DD-A52064B22C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="6075" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="0" windowWidth="27090" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8SGPWU" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Q1</t>
   </si>
@@ -76,16 +76,7 @@
     <t>Q7</t>
   </si>
   <si>
-    <t>Jes�s Manuel Mu�oz Calle</t>
-  </si>
-  <si>
-    <t>IES Joaqu�n Turina</t>
-  </si>
-  <si>
     <t>Q8</t>
-  </si>
-  <si>
-    <t>Jos� Manuel Candilejo Egea</t>
   </si>
   <si>
     <t>1� Bachillerato. Ciencias</t>
@@ -242,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -388,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,7 +532,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,41 +611,35 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -662,134 +647,134 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
